--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_19-30.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_19-30.xlsx
@@ -59,268 +59,274 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>AM GINKO TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>3:5</t>
+  </si>
+  <si>
+    <t>BEPRA 20MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>BETOLVEX 1MG/ML 2 AMP</t>
+  </si>
+  <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>BLADOGRA XR 50MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>BRIMILLERGY 0.025% EYE DROPS</t>
+  </si>
+  <si>
+    <t>BRONCHICUM 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>CEFOTAX 2 GM VIAL</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>CHOLEROSE 10MG 21 F.C.TAB</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>COLD FREE 20 TAB.</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 300MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>20:1</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>DELAREX 5MG 30TAB</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>DICLOPRO 150 MG ID 20 TABS.</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>9:1</t>
+  </si>
+  <si>
+    <t>DOLPHIN 25 MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>EPICEPHIN 1 GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>FALCONACEA SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>FLOPADEX 8 MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>FLUXOPRIDE 5MG 30 FAST DISSOLVING IN MOUTH TAB</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/500MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>INFECTOCURE 500 MG 14 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>ISOTRETINOIN 20MG 30CAPS</t>
+  </si>
+  <si>
+    <t>IVERZINE 6MG 24 TABS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>KATIVAROX SYRUP</t>
+  </si>
+  <si>
+    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
+  </si>
+  <si>
+    <t>LEVANOX N 20 CAPS</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>LEZBERG TRIO 20/5/12.5 TAB</t>
+  </si>
+  <si>
+    <t>LIMITLESS MAN MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>LYSE 0.65% NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>MANOVIPERCAINE PLUS TOPICAL SPRAY 15 ML</t>
+  </si>
+  <si>
+    <t>MENTOVAL DROPS</t>
+  </si>
+  <si>
+    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>MOXEN 15 MG 20 TABS</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>0:6</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>OMEGAPRESS 0.1 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>OMEPURE ORAL DPS 10 ML</t>
+  </si>
+  <si>
+    <t>OPLEX N PLUS 10 SUPP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>ORCHADEXOLINE EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>PENDULINE كريم ب زبدة الشيا</t>
+  </si>
+  <si>
+    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
     <t>3:3</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>AM GINKO TAB</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>ARTICU-SAFE 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>3:5</t>
-  </si>
-  <si>
-    <t>BEPRA 20MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>BETOLVEX 1MG/ML 2 AMP</t>
-  </si>
-  <si>
-    <t>BI ALCOFAN 150 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>BLADOGRA XR 50MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>BRIMILLERGY 0.025% EYE DROPS</t>
-  </si>
-  <si>
-    <t>BRONCHICUM 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>CEFOTAX 2 GM VIAL</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>CEPOREX 1GM 8 TABLETS</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>CHOLEROSE 10MG 21 F.C.TAB</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>COLD FREE 20 TAB.</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>CONGESTAL SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>CONVENTIN XR 300MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
-  </si>
-  <si>
-    <t>20:1</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>DELAREX 5MG 30TAB</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>DICLOPRO 150 MG ID 20 TABS.</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>9:1</t>
-  </si>
-  <si>
-    <t>DOLPHIN 25 MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
-  </si>
-  <si>
-    <t>EPICEPHIN 1 GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>FALCONACEA SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>FLOPADEX 8 MG 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>FLUXOPRIDE 5MG 30 FAST DISSOLVING IN MOUTH TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>GLYBOFEN 5/500MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>INFECTOCURE 500 MG 14 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>ISOTRETINOIN 20MG 30CAPS</t>
-  </si>
-  <si>
-    <t>IVERZINE 6MG 24 TABS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>KATIVAROX SYRUP</t>
-  </si>
-  <si>
-    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
-  </si>
-  <si>
-    <t>LEVANOX N 20 CAPS</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>LEZBERG TRIO 20/5/12.5 TAB</t>
-  </si>
-  <si>
-    <t>LIMITLESS MAN MAX 30 TABS</t>
-  </si>
-  <si>
-    <t>LYSE 0.65% NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>MANOVIPERCAINE PLUS TOPICAL SPRAY 15 ML</t>
-  </si>
-  <si>
-    <t>MENTOVAL DROPS</t>
-  </si>
-  <si>
-    <t>MIXTARD 30 HM 100 I.U./ML 10ML VIAL</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>MOXEN 15 MG 20 TABS</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>0:6</t>
-  </si>
-  <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>OMEGAPRESS 0.1 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>OMEPURE ORAL DPS 10 ML</t>
-  </si>
-  <si>
-    <t>OPLEX N PLUS 10 SUPP.</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>ORCHADEXOLINE EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>PENDULINE كريم ب زبدة الشيا</t>
-  </si>
-  <si>
-    <t>POWER B COMPLEX I.M./I.V. 6 AMP</t>
   </si>
   <si>
     <t>RANI-F 20MG 6 SACHETS</t>
@@ -1137,7 +1143,7 @@
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
@@ -1193,7 +1199,7 @@
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1201,7 +1207,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1227,7 +1233,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1235,7 +1241,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -1245,7 +1251,7 @@
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1253,7 +1259,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1271,7 +1277,7 @@
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1279,7 +1285,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1305,7 +1311,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1323,7 +1329,7 @@
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1331,7 +1337,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1357,7 +1363,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1365,7 +1371,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1383,7 +1389,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1409,7 +1415,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1417,7 +1423,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1427,7 +1433,7 @@
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1435,7 +1441,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1461,7 +1467,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1469,7 +1475,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -1487,7 +1493,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1505,7 +1511,7 @@
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1513,7 +1519,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1521,13 +1527,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>43.329999999999998</v>
+        <v>86.659999999999997</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1539,7 +1545,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1547,7 +1553,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -1565,7 +1571,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1573,7 +1579,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -1591,7 +1597,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1617,7 +1623,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1625,7 +1631,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -1643,7 +1649,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1661,7 +1667,7 @@
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1669,7 +1675,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1677,7 +1683,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -1695,7 +1701,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1703,7 +1709,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -1713,7 +1719,7 @@
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1721,7 +1727,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1729,7 +1735,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -1739,7 +1745,7 @@
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1747,7 +1753,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1765,7 +1771,7 @@
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1773,7 +1779,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1791,7 +1797,7 @@
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1799,7 +1805,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1807,7 +1813,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -1817,7 +1823,7 @@
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1825,7 +1831,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1833,7 +1839,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -1843,7 +1849,7 @@
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1851,7 +1857,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1877,7 +1883,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1885,7 +1891,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -1895,7 +1901,7 @@
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1903,7 +1909,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1911,7 +1917,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -1929,7 +1935,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1947,7 +1953,7 @@
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1955,7 +1961,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1963,7 +1969,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
@@ -1981,7 +1987,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2007,7 +2013,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2033,7 +2039,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2041,7 +2047,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -2059,7 +2065,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2085,7 +2091,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2111,7 +2117,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2119,7 +2125,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -2129,7 +2135,7 @@
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2137,7 +2143,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2155,7 +2161,7 @@
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2163,7 +2169,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2189,7 +2195,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2207,7 +2213,7 @@
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2215,7 +2221,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2233,7 +2239,7 @@
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2241,7 +2247,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2267,7 +2273,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2275,7 +2281,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -2293,7 +2299,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2301,7 +2307,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -2319,7 +2325,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2345,7 +2351,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2371,7 +2377,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2389,7 +2395,7 @@
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2397,7 +2403,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2405,7 +2411,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
@@ -2423,7 +2429,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2431,7 +2437,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
@@ -2449,7 +2455,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2457,7 +2463,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -2475,7 +2481,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2483,7 +2489,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -2501,7 +2507,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2509,7 +2515,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
@@ -2527,7 +2533,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2553,7 +2559,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2561,7 +2567,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
@@ -2579,7 +2585,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2587,7 +2593,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
@@ -2597,7 +2603,7 @@
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2605,7 +2611,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2623,7 +2629,7 @@
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2631,7 +2637,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2649,7 +2655,7 @@
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2657,7 +2663,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2683,7 +2689,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2691,7 +2697,7 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
@@ -2709,7 +2715,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2717,7 +2723,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
@@ -2727,7 +2733,7 @@
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2735,7 +2741,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2761,7 +2767,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2787,7 +2793,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2795,7 +2801,7 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
@@ -2813,7 +2819,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2821,7 +2827,7 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
@@ -2831,7 +2837,7 @@
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2839,7 +2845,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2865,7 +2871,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2873,7 +2879,7 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
@@ -2883,7 +2889,7 @@
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2891,7 +2897,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2899,7 +2905,7 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
@@ -2909,7 +2915,7 @@
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2917,7 +2923,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2925,7 +2931,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
@@ -2943,7 +2949,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2951,7 +2957,7 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
@@ -2969,7 +2975,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2977,7 +2983,7 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
@@ -2995,7 +3001,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3003,7 +3009,7 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
@@ -3021,7 +3027,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3029,7 +3035,7 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
@@ -3039,7 +3045,7 @@
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3047,7 +3053,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3073,7 +3079,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3081,7 +3087,7 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
@@ -3099,7 +3105,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3107,7 +3113,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
@@ -3125,7 +3131,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3133,7 +3139,7 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
@@ -3151,7 +3157,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3177,7 +3183,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3185,7 +3191,7 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
@@ -3203,7 +3209,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3221,7 +3227,7 @@
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3229,7 +3235,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3247,7 +3253,7 @@
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3255,7 +3261,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3263,7 +3269,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
@@ -3281,7 +3287,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3289,7 +3295,7 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
@@ -3299,7 +3305,7 @@
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3307,7 +3313,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3315,7 +3321,7 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
@@ -3333,7 +3339,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3341,7 +3347,7 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
@@ -3351,7 +3357,7 @@
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3359,7 +3365,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3367,7 +3373,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
@@ -3385,7 +3391,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3393,7 +3399,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
@@ -3411,7 +3417,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3419,7 +3425,7 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
@@ -3437,7 +3443,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3445,7 +3451,7 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
@@ -3463,7 +3469,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3471,7 +3477,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
@@ -3481,7 +3487,7 @@
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3489,7 +3495,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3497,7 +3503,7 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
@@ -3507,7 +3513,7 @@
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3515,7 +3521,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3523,7 +3529,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
@@ -3541,7 +3547,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3549,7 +3555,7 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
@@ -3567,7 +3573,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3575,7 +3581,7 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
@@ -3593,7 +3599,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3601,7 +3607,7 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
@@ -3616,7 +3622,7 @@
     </row>
     <row r="104" ht="25.5" customHeight="1">
       <c r="K104" s="10">
-        <v>6633.6700000000001</v>
+        <v>6706</v>
       </c>
       <c r="L104" s="10"/>
       <c r="M104" s="10"/>
@@ -3624,19 +3630,19 @@
     </row>
     <row r="105" ht="16.5" customHeight="1">
       <c t="s" r="A105" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
       <c t="s" r="F105" s="12">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G105" s="12"/>
       <c r="H105" s="13"/>
       <c t="s" r="I105" s="14">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J105" s="14"/>
       <c r="K105" s="14"/>
